--- a/com.CucumberAutomationTests/target/test-classes/testData/testData.xlsx
+++ b/com.CucumberAutomationTests/target/test-classes/testData/testData.xlsx
@@ -382,7 +382,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
